--- a/biology/Zoologie/David_Grimaldi/David_Grimaldi.xlsx
+++ b/biology/Zoologie/David_Grimaldi/David_Grimaldi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">David A. Grimaldi (né le 22 septembre 1957) est un entomologiste et un conservateur en zoologie des invertébrés au musée américain d'histoire naturelle de New York.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il fait ses études supérieures à l'Université Cornell, où il obtient son doctorat en entomologie en 1986, et fait autorité dans de nombreux domaines de la systématique des insectes, de la paléontologie et de la biologie évolutive[1].
-Il est également professeur adjoint à l'université Cornell, à l'Université Columbia et à la City University de New York[1].
-Outre de nombreux articles dans des revues scientifiques, Grimaldi est l'auteur de Amber: Window to the Past et de Evolution of the Insects (2005) avec comme co-auteur Michael S. Engel[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il fait ses études supérieures à l'Université Cornell, où il obtient son doctorat en entomologie en 1986, et fait autorité dans de nombreux domaines de la systématique des insectes, de la paléontologie et de la biologie évolutive.
+Il est également professeur adjoint à l'université Cornell, à l'Université Columbia et à la City University de New York.
+Outre de nombreux articles dans des revues scientifiques, Grimaldi est l'auteur de Amber: Window to the Past et de Evolution of the Insects (2005) avec comme co-auteur Michael S. Engel.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Éponymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Voici une sélection de taxons donnés en l'honneur de David A. Grimaldi :
 Afrarchaea grimaldii Penney, 2003 - une araignée aranéomorphe fossile dans l'ambre birman
